--- a/adm/30_Jan_18_44_Grades-5100-B1-2E16;Programmering_og_problemlosning.xlsx
+++ b/adm/30_Jan_18_44_Grades-5100-B1-2E16;Programmering_og_problemlosning.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sporring/repositories/PoP/adm/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="37920" yWindow="840" windowWidth="25360" windowHeight="15220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,8 +17,11 @@
   <definedNames>
     <definedName name="_30_Jan_18_44_Grades_5100_B1_2E16_Programmering_og_problemløsning" localSheetId="0">Sheet1!$A$1:$R$233</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1649,6 +1657,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1980,11 +1993,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="A247" sqref="A247"/>
+    <sheetView tabSelected="1" topLeftCell="E221" workbookViewId="0">
+      <selection activeCell="A234" sqref="A234:S249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
@@ -2003,7 +2016,7 @@
     <col min="18" max="18" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2056,7 +2069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2101,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2155,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2212,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2242,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2296,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2353,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2383,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2437,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2491,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -2545,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2593,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2647,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2701,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -2755,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -2812,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -2866,7 +2879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -2917,7 +2930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -2974,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -3028,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -3082,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -3136,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -3190,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -3220,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -3274,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -3328,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -3367,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -3391,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -3448,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -3502,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -3556,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -3610,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -3664,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -3718,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -3760,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -3814,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -3868,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -3922,7 +3935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -3976,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -4030,7 +4043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>104</v>
       </c>
@@ -4087,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>106</v>
       </c>
@@ -4141,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>108</v>
       </c>
@@ -4195,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -4249,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>112</v>
       </c>
@@ -4303,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -4360,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>116</v>
       </c>
@@ -4410,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -4467,7 +4480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>120</v>
       </c>
@@ -4524,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>122</v>
       </c>
@@ -4581,7 +4594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>124</v>
       </c>
@@ -4638,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>126</v>
       </c>
@@ -4692,7 +4705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>128</v>
       </c>
@@ -4749,7 +4762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>130</v>
       </c>
@@ -4806,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>132</v>
       </c>
@@ -4857,7 +4870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>134</v>
       </c>
@@ -4911,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>136</v>
       </c>
@@ -4965,7 +4978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>138</v>
       </c>
@@ -4986,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>140</v>
       </c>
@@ -5040,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>142</v>
       </c>
@@ -5097,7 +5110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>144</v>
       </c>
@@ -5151,7 +5164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>146</v>
       </c>
@@ -5196,7 +5209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>148</v>
       </c>
@@ -5241,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>150</v>
       </c>
@@ -5295,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>152</v>
       </c>
@@ -5349,7 +5362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>154</v>
       </c>
@@ -5403,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>156</v>
       </c>
@@ -5457,7 +5470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>158</v>
       </c>
@@ -5484,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>160</v>
       </c>
@@ -5538,7 +5551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>162</v>
       </c>
@@ -5592,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>164</v>
       </c>
@@ -5649,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>166</v>
       </c>
@@ -5697,7 +5710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>168</v>
       </c>
@@ -5751,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>170</v>
       </c>
@@ -5805,7 +5818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>172</v>
       </c>
@@ -5859,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>174</v>
       </c>
@@ -5913,7 +5926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>176</v>
       </c>
@@ -5967,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>178</v>
       </c>
@@ -5997,7 +6010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>180</v>
       </c>
@@ -6051,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>182</v>
       </c>
@@ -6105,7 +6118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>184</v>
       </c>
@@ -6162,7 +6175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>186</v>
       </c>
@@ -6186,7 +6199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>188</v>
       </c>
@@ -6240,7 +6253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>190</v>
       </c>
@@ -6294,7 +6307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>192</v>
       </c>
@@ -6318,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>194</v>
       </c>
@@ -6372,7 +6385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>196</v>
       </c>
@@ -6426,7 +6439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>198</v>
       </c>
@@ -6483,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>200</v>
       </c>
@@ -6537,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>202</v>
       </c>
@@ -6594,7 +6607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>204</v>
       </c>
@@ -6648,7 +6661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>206</v>
       </c>
@@ -6687,7 +6700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>208</v>
       </c>
@@ -6735,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>210</v>
       </c>
@@ -6759,7 +6772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>212</v>
       </c>
@@ -6813,7 +6826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>214</v>
       </c>
@@ -6867,7 +6880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>216</v>
       </c>
@@ -6894,7 +6907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>218</v>
       </c>
@@ -6942,7 +6955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>220</v>
       </c>
@@ -6996,7 +7009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>222</v>
       </c>
@@ -7020,7 +7033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>224</v>
       </c>
@@ -7074,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>226</v>
       </c>
@@ -7128,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>228</v>
       </c>
@@ -7182,7 +7195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>230</v>
       </c>
@@ -7236,7 +7249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>232</v>
       </c>
@@ -7287,7 +7300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>234</v>
       </c>
@@ -7341,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>236</v>
       </c>
@@ -7395,7 +7408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>238</v>
       </c>
@@ -7449,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>240</v>
       </c>
@@ -7503,7 +7516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>242</v>
       </c>
@@ -7557,7 +7570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>244</v>
       </c>
@@ -7611,7 +7624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>246</v>
       </c>
@@ -7631,7 +7644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>248</v>
       </c>
@@ -7685,7 +7698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>250</v>
       </c>
@@ -7742,7 +7755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>252</v>
       </c>
@@ -7796,7 +7809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>254</v>
       </c>
@@ -7850,7 +7863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>256</v>
       </c>
@@ -7877,7 +7890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>258</v>
       </c>
@@ -7931,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>260</v>
       </c>
@@ -7985,7 +7998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>262</v>
       </c>
@@ -8033,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>264</v>
       </c>
@@ -8090,7 +8103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>266</v>
       </c>
@@ -8147,7 +8160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>268</v>
       </c>
@@ -8204,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>270</v>
       </c>
@@ -8261,7 +8274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>272</v>
       </c>
@@ -8318,7 +8331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>274</v>
       </c>
@@ -8372,7 +8385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>276</v>
       </c>
@@ -8393,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>278</v>
       </c>
@@ -8447,7 +8460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>280</v>
       </c>
@@ -8501,7 +8514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>282</v>
       </c>
@@ -8558,7 +8571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>284</v>
       </c>
@@ -8612,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>286</v>
       </c>
@@ -8633,7 +8646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>288</v>
       </c>
@@ -8675,7 +8688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>290</v>
       </c>
@@ -8705,7 +8718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>292</v>
       </c>
@@ -8762,7 +8775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>294</v>
       </c>
@@ -8801,7 +8814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>296</v>
       </c>
@@ -8834,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>298</v>
       </c>
@@ -8888,7 +8901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>300</v>
       </c>
@@ -8942,7 +8955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>302</v>
       </c>
@@ -8999,7 +9012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>304</v>
       </c>
@@ -9056,7 +9069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>306</v>
       </c>
@@ -9113,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>308</v>
       </c>
@@ -9167,7 +9180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>310</v>
       </c>
@@ -9224,7 +9237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>312</v>
       </c>
@@ -9278,7 +9291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>314</v>
       </c>
@@ -9332,7 +9345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>316</v>
       </c>
@@ -9386,7 +9399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>318</v>
       </c>
@@ -9440,7 +9453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>320</v>
       </c>
@@ -9470,7 +9483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>322</v>
       </c>
@@ -9527,7 +9540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>324</v>
       </c>
@@ -9581,7 +9594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:18">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>326</v>
       </c>
@@ -9623,7 +9636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>328</v>
       </c>
@@ -9677,7 +9690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:18">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>330</v>
       </c>
@@ -9731,7 +9744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:18">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>332</v>
       </c>
@@ -9785,7 +9798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:18">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>334</v>
       </c>
@@ -9839,7 +9852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:18">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>336</v>
       </c>
@@ -9860,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:18">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>338</v>
       </c>
@@ -9914,7 +9927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:18">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>340</v>
       </c>
@@ -9965,7 +9978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>342</v>
       </c>
@@ -10022,7 +10035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>344</v>
       </c>
@@ -10076,7 +10089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>346</v>
       </c>
@@ -10130,7 +10143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>348</v>
       </c>
@@ -10187,7 +10200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>350</v>
       </c>
@@ -10241,7 +10254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>352</v>
       </c>
@@ -10298,7 +10311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>354</v>
       </c>
@@ -10355,7 +10368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>356</v>
       </c>
@@ -10409,7 +10422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>358</v>
       </c>
@@ -10463,7 +10476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>360</v>
       </c>
@@ -10517,7 +10530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>362</v>
       </c>
@@ -10541,7 +10554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>364</v>
       </c>
@@ -10595,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>366</v>
       </c>
@@ -10649,7 +10662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:18">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>368</v>
       </c>
@@ -10703,7 +10716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:18">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>370</v>
       </c>
@@ -10760,7 +10773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>372</v>
       </c>
@@ -10808,7 +10821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>374</v>
       </c>
@@ -10862,7 +10875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>376</v>
       </c>
@@ -10910,7 +10923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:18">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>378</v>
       </c>
@@ -10964,7 +10977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:18">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>380</v>
       </c>
@@ -11021,7 +11034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:18">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>382</v>
       </c>
@@ -11075,7 +11088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:18">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>384</v>
       </c>
@@ -11132,7 +11145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>386</v>
       </c>
@@ -11186,7 +11199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>388</v>
       </c>
@@ -11240,7 +11253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:18">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>390</v>
       </c>
@@ -11288,7 +11301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>392</v>
       </c>
@@ -11342,7 +11355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>394</v>
       </c>
@@ -11399,7 +11412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>396</v>
       </c>
@@ -11453,7 +11466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>398</v>
       </c>
@@ -11480,7 +11493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>400</v>
       </c>
@@ -11537,7 +11550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>402</v>
       </c>
@@ -11591,7 +11604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:18">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>404</v>
       </c>
@@ -11645,7 +11658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:18">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>406</v>
       </c>
@@ -11690,7 +11703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>408</v>
       </c>
@@ -11744,7 +11757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>410</v>
       </c>
@@ -11798,7 +11811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>412</v>
       </c>
@@ -11852,7 +11865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>414</v>
       </c>
@@ -11906,7 +11919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>416</v>
       </c>
@@ -11960,7 +11973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>418</v>
       </c>
@@ -11984,7 +11997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>420</v>
       </c>
@@ -12038,7 +12051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>422</v>
       </c>
@@ -12092,7 +12105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>424</v>
       </c>
@@ -12146,7 +12159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>426</v>
       </c>
@@ -12167,7 +12180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>428</v>
       </c>
@@ -12215,7 +12228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>430</v>
       </c>
@@ -12269,7 +12282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>432</v>
       </c>
@@ -12323,7 +12336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>434</v>
       </c>
@@ -12377,7 +12390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>436</v>
       </c>
@@ -12431,7 +12444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>438</v>
       </c>
@@ -12485,7 +12498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:18">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>440</v>
       </c>
@@ -12539,7 +12552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:18">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>442</v>
       </c>
@@ -12593,7 +12606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:18">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>444</v>
       </c>
@@ -12647,7 +12660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:18">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>446</v>
       </c>
@@ -12704,7 +12717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:18">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>448</v>
       </c>
@@ -12761,7 +12774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:18">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>450</v>
       </c>
@@ -12815,7 +12828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:18">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>452</v>
       </c>
@@ -12836,7 +12849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:18">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>454</v>
       </c>
@@ -12890,7 +12903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:18">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>456</v>
       </c>
@@ -12944,7 +12957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:18">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>458</v>
       </c>
@@ -13001,7 +13014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:18">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>460</v>
       </c>
@@ -13055,7 +13068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:18">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>462</v>
       </c>
@@ -13109,7 +13122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:18">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>464</v>
       </c>
@@ -13163,7 +13176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:18">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>466</v>
       </c>
@@ -13217,7 +13230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:18">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>468</v>
       </c>
@@ -13274,7 +13287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:18">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>470</v>
       </c>
@@ -13331,7 +13344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:19">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>472</v>
       </c>
@@ -13355,7 +13368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:19">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>474</v>
       </c>
@@ -13412,7 +13425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:19">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>476</v>
       </c>
@@ -13466,7 +13479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:19">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>478</v>
       </c>
@@ -13514,7 +13527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:19">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>480</v>
       </c>
@@ -13568,7 +13581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:19">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>482</v>
       </c>
@@ -13622,7 +13635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:19">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>484</v>
       </c>
@@ -13679,7 +13692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:19">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>486</v>
       </c>
@@ -13733,7 +13746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:19">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>488</v>
       </c>
@@ -13747,7 +13760,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="234" spans="1:19">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>491</v>
       </c>
@@ -13800,11 +13813,11 @@
         <v>41</v>
       </c>
       <c r="S234">
-        <f t="shared" ref="I234:S234" si="5">SUM(S4:S233)</f>
+        <f t="shared" ref="S234" si="5">SUM(S4:S233)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:19">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>492</v>
       </c>
@@ -13822,7 +13835,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="237" spans="1:19">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>0</v>
       </c>
@@ -13842,7 +13855,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="238" spans="1:19">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>1</v>
       </c>
@@ -13862,7 +13875,7 @@
         <v>0.86255924170616116</v>
       </c>
     </row>
-    <row r="239" spans="1:19">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>2</v>
       </c>
@@ -13875,7 +13888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="240" spans="1:19">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>3</v>
       </c>
@@ -13888,7 +13901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>4</v>
       </c>
@@ -13901,7 +13914,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>5</v>
       </c>
@@ -13914,7 +13927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>6</v>
       </c>
@@ -13927,7 +13940,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>7</v>
       </c>
@@ -13940,7 +13953,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>8</v>
       </c>
@@ -13953,7 +13966,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>9</v>
       </c>
@@ -13966,7 +13979,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>10</v>
       </c>
@@ -13979,7 +13992,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>11</v>
       </c>
@@ -13992,7 +14005,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>12</v>
       </c>
@@ -14008,10 +14021,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>